--- a/WebContent/web-ui-platform说明.xlsx
+++ b/WebContent/web-ui-platform说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="web-ui-platform整体规划" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,23 @@
   </si>
   <si>
     <t>open_source_js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">简要说明一下系统框架调用过程，回头整理成图表结合的文档，放到框架介绍中
+对于访问根目录index.html，首先加载layout.js，调用方法initWebUI()初始化页面元素，在该方法中初始化顶部菜单点击事件，并根据url hash 中对应的模块名触发相对应的click事件。Click事件中主要实现了页面主体的动态加载。关键代码为：
+$('#webUiBody').load(this.href + ' .h-body', function() {
+           me.loadLeftMenu(xmlUrl);
+          });
+在调用loadLeftMenu时，会加载左侧菜单项，并根据url hash触发加载右侧内容，如果没有url hash则默认加载第一个菜单项。
+触发左侧菜单项加载右侧内容是通过方法linkMenuLoadContent实现的，该方法中通过加载url来显示内容，显示的内容也是个子菜单项，该子菜单项同样注册了点击事件，最后触发该点击事件来显示内容。
+对于直接访问模块目录下的index.html时直接加载me.loadLeftMenu(xmlUrl);即可
+需要说明的：
+主体内容为：#webUiBody
+每个模块名下的index.html实际上是一样的，都包括以下代码：
+&lt;div class="h-body h-clearfix"&gt;...&lt;/div&gt; 这里可以抽象为模板加载页面，之所以没有抽象出来是为了用户可以直接访问各模块来查看页面效果
+xml配置文件中模块名要与创建的二三级菜单名字统一
+           </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -164,14 +181,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,14 +565,401 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A4:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:M28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="13" max="13" width="54.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:M28"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -664,7 +1071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -717,12 +1124,12 @@
       <c r="H4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
@@ -731,13 +1138,13 @@
       <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
@@ -746,13 +1153,13 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
@@ -761,13 +1168,13 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
@@ -776,13 +1183,13 @@
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
@@ -791,13 +1198,13 @@
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
@@ -806,58 +1213,58 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
